--- a/SwapPricing/sample_moneymarkget_swaprate.xlsx
+++ b/SwapPricing/sample_moneymarkget_swaprate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michinobu/Desktop/dev/Python/Finance/SwapPricing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susynishida/Desktop/dev/Python/Finance/SwapPricing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="480" windowWidth="25600" windowHeight="26720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="create_cashflow" sheetId="1" r:id="rId1"/>
     <sheet name="moneymarket_rate" sheetId="2" r:id="rId2"/>
     <sheet name="swap_rate" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -283,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,6 +292,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -299,15 +301,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="パーセント" xfId="7" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -584,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1387,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
